--- a/チーム5+5/第3反復/05_テスト/非機能要求一覧(結果記入済).xlsx
+++ b/チーム5+5/第3反復/05_テスト/非機能要求一覧(結果記入済).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{324BC000-7ED3-4A5A-889D-E1A23882F302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F8796EF-A288-4236-8C07-A1323EB22511}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002AE9AD-5E44-4B53-8BC9-E071C2DA9C74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -444,7 +444,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,11 +1118,11 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -1510,14 +1510,14 @@
     <col min="16134" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9" customHeight="1"/>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:5" ht="40.15" customHeight="1">
+    <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1526,8 +1526,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="9" customHeight="1"/>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1">
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1555,7 +1555,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -1563,7 +1563,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
@@ -1571,7 +1571,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="55.5" customHeight="1">
+    <row r="13" spans="2:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>12</v>
@@ -1593,7 +1593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
         <v>15</v>
@@ -1601,7 +1601,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="16.5">
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -1609,7 +1609,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
         <v>19</v>
@@ -1627,7 +1627,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="16.5">
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -1635,7 +1635,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="10" t="s">
         <v>21</v>
@@ -1643,7 +1643,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="16.5">
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="49.5">
+    <row r="21" spans="2:5" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>24</v>
@@ -1665,7 +1665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5">
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>27</v>
@@ -1677,7 +1677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
         <v>30</v>
@@ -1685,7 +1685,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>33</v>
@@ -1703,7 +1703,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5">
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
         <v>34</v>
@@ -1711,7 +1711,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
       <c r="C27" s="10" t="s">
         <v>35</v>
@@ -1719,8 +1719,8 @@
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="9" customHeight="1"/>
-    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="17"/>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -2138,14 +2138,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -2157,8 +2157,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2180,14 +2180,14 @@
       <c r="E8" s="18"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2198,14 +2198,14 @@
       <c r="E10" s="18"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="20"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
         <v>24</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1">
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>27</v>
@@ -2264,7 +2264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
@@ -2288,8 +2288,8 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" ht="9" customHeight="1"/>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
@@ -2309,6 +2309,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2492,29 +2507,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C6D8BD-13FC-4E96-9B38-A37F2C4D3E00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C6D8BD-13FC-4E96-9B38-A37F2C4D3E00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>